--- a/Documents/代码估计.xlsx
+++ b/Documents/代码估计.xlsx
@@ -10,12 +10,12 @@
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="详细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="109">
   <si>
     <t>模块</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,10 +376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备管理、超时WebSocket连接管理、容量管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>设备管理、容量管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -457,6 +453,18 @@
   </si>
   <si>
     <t>接受WebSocket建立请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包括操作码定义类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json\AppJsonMessage.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备管理、超时WebSocket连接管理、容量管理、统计管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,9 +564,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -578,232 +583,26 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1102,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1120,1679 +919,2231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <f>SUM(B4:B88)</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
+        <v>16600</v>
+      </c>
+      <c r="C3" s="10">
         <f>SUM(C4:C88)</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="7">
+        <v>11570</v>
+      </c>
+      <c r="D3" s="6">
         <f>IF(B3+C3&gt;0,ABS(B3-C3)/MAX(B3,C3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
+        <v>0.30301204819277111</v>
+      </c>
+      <c r="E3" s="4">
         <f>SUM(E4:E88)</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
+        <v>12860</v>
+      </c>
+      <c r="F3" s="4">
         <f>SUM(F4:F88)</f>
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
+        <v>12520</v>
+      </c>
+      <c r="G3" s="6">
         <f>IF(E3+F3&gt;0,ABS(E3-F3)/MAX(E3,F3),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+        <v>2.6438569206842923E-2</v>
+      </c>
+      <c r="H3" s="4">
         <f>SUM(H4:H88)</f>
         <v>0</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f>SUM(I4:I88)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <f>IF(H3+I3&gt;0,ABS(H3-I3)/MAX(H3,I3),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10">
+      <c r="B4" s="8">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <v>50</v>
+      </c>
+      <c r="D4" s="9">
         <f t="shared" ref="D4:D67" si="0">IF(B4+C4&gt;0,ABS(B4-C4)/MAX(B4,C4),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>50</v>
+      </c>
+      <c r="F4" s="12">
+        <v>50</v>
+      </c>
+      <c r="G4" s="9">
         <f t="shared" ref="G4:G67" si="1">IF(E4+F4&gt;0,ABS(E4-F4)/MAX(E4,F4),0)</f>
         <v>0</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="10">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9">
         <f t="shared" ref="J4:J67" si="2">IF(H4+I4&gt;0,ABS(H4-I4)/MAX(H4,I4),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10">
+      <c r="B5" s="8">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <v>30</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E5" s="12">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12">
+        <v>30</v>
+      </c>
+      <c r="G5" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10">
+      <c r="B6" s="8">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="12">
+        <v>40</v>
+      </c>
+      <c r="F6" s="12">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="10">
+      <c r="B7" s="8">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <v>200</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="12">
+        <v>80</v>
+      </c>
+      <c r="F7" s="12">
+        <v>200</v>
+      </c>
+      <c r="G7" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="10">
+      <c r="B8" s="8">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7">
+        <v>80</v>
+      </c>
+      <c r="D8" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E8" s="12">
+        <v>40</v>
+      </c>
+      <c r="F8" s="12">
+        <v>80</v>
+      </c>
+      <c r="G8" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
+      <c r="B9" s="8">
+        <v>300</v>
+      </c>
+      <c r="C9" s="7">
+        <v>500</v>
+      </c>
+      <c r="D9" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="12">
+        <v>250</v>
+      </c>
+      <c r="F9" s="12">
+        <v>500</v>
+      </c>
+      <c r="G9" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="10">
+      <c r="B10" s="8">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7">
+        <v>100</v>
+      </c>
+      <c r="D10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>70</v>
+      </c>
+      <c r="F10" s="12">
+        <v>100</v>
+      </c>
+      <c r="G10" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="10">
+      <c r="B11" s="8">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <v>100</v>
+      </c>
+      <c r="D11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>40</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100</v>
+      </c>
+      <c r="G11" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="10">
+      <c r="B12" s="8">
+        <v>100</v>
+      </c>
+      <c r="C12" s="7">
+        <v>100</v>
+      </c>
+      <c r="D12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="12">
+        <v>70</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100</v>
+      </c>
+      <c r="G12" s="9">
+        <f t="shared" si="1"/>
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="10">
+      <c r="B13" s="8">
+        <v>100</v>
+      </c>
+      <c r="C13" s="7">
+        <v>100</v>
+      </c>
+      <c r="D13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="12">
+        <v>40</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100</v>
+      </c>
+      <c r="G13" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="10">
+      <c r="B14" s="8">
+        <v>100</v>
+      </c>
+      <c r="C14" s="7">
+        <v>80</v>
+      </c>
+      <c r="D14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E14" s="12">
+        <v>40</v>
+      </c>
+      <c r="F14" s="12">
+        <v>80</v>
+      </c>
+      <c r="G14" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="10">
+      <c r="B15" s="8">
+        <v>200</v>
+      </c>
+      <c r="C15" s="7">
+        <v>50</v>
+      </c>
+      <c r="D15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E15" s="12">
+        <v>150</v>
+      </c>
+      <c r="F15" s="12">
+        <v>50</v>
+      </c>
+      <c r="G15" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="10">
+      <c r="B16" s="8">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7">
+        <v>50</v>
+      </c>
+      <c r="D16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="12">
+        <v>80</v>
+      </c>
+      <c r="F16" s="12">
+        <v>50</v>
+      </c>
+      <c r="G16" s="9">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="10">
+      <c r="B17" s="8">
+        <v>200</v>
+      </c>
+      <c r="C17" s="7">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E17" s="12">
+        <v>150</v>
+      </c>
+      <c r="F17" s="12">
+        <v>50</v>
+      </c>
+      <c r="G17" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="10">
+      <c r="B18" s="8">
+        <v>100</v>
+      </c>
+      <c r="C18" s="7">
+        <v>50</v>
+      </c>
+      <c r="D18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="12">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12">
+        <v>50</v>
+      </c>
+      <c r="G18" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
+      <c r="B19" s="8">
+        <v>500</v>
+      </c>
+      <c r="C19" s="7">
+        <v>300</v>
+      </c>
+      <c r="D19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="12">
+        <v>450</v>
+      </c>
+      <c r="F19" s="12">
+        <v>300</v>
+      </c>
+      <c r="G19" s="9">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="10">
+      <c r="B20" s="8">
+        <v>300</v>
+      </c>
+      <c r="C20" s="7">
+        <v>500</v>
+      </c>
+      <c r="D20" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="12">
+        <v>300</v>
+      </c>
+      <c r="F20" s="12">
+        <v>500</v>
+      </c>
+      <c r="G20" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="10">
+      <c r="B21" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C21" s="7">
+        <v>300</v>
+      </c>
+      <c r="D21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E21" s="12">
+        <v>600</v>
+      </c>
+      <c r="F21" s="12">
+        <v>700</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="1"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10">
+      <c r="B22" s="8">
+        <v>300</v>
+      </c>
+      <c r="C22" s="7">
+        <v>300</v>
+      </c>
+      <c r="D22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="12">
+        <v>250</v>
+      </c>
+      <c r="F22" s="12">
+        <v>300</v>
+      </c>
+      <c r="G22" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10">
+      <c r="B23" s="8">
+        <v>200</v>
+      </c>
+      <c r="C23" s="7">
+        <v>200</v>
+      </c>
+      <c r="D23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E23" s="12">
+        <v>180</v>
+      </c>
+      <c r="F23" s="12">
+        <v>200</v>
+      </c>
+      <c r="G23" s="9">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="10">
+      <c r="A24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="8">
+        <v>100</v>
+      </c>
+      <c r="C24" s="7">
+        <v>700</v>
+      </c>
+      <c r="D24" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="E24" s="12">
+        <v>400</v>
+      </c>
+      <c r="F24" s="12">
+        <v>700</v>
+      </c>
+      <c r="G24" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="10">
+      <c r="B25" s="8">
+        <v>200</v>
+      </c>
+      <c r="C25" s="7">
+        <v>150</v>
+      </c>
+      <c r="D25" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E25" s="12">
+        <v>160</v>
+      </c>
+      <c r="F25" s="12">
+        <v>150</v>
+      </c>
+      <c r="G25" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="10">
+      <c r="B26" s="8">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7">
+        <v>200</v>
+      </c>
+      <c r="D26" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="12">
+        <v>80</v>
+      </c>
+      <c r="F26" s="12">
+        <v>200</v>
+      </c>
+      <c r="G26" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="10">
+      <c r="B27" s="8">
+        <v>400</v>
+      </c>
+      <c r="C27" s="7">
+        <v>150</v>
+      </c>
+      <c r="D27" s="9">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="E27" s="12">
+        <v>300</v>
+      </c>
+      <c r="F27" s="12">
+        <v>150</v>
+      </c>
+      <c r="G27" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="10">
+      <c r="B28" s="8">
+        <v>500</v>
+      </c>
+      <c r="C28" s="7">
+        <v>300</v>
+      </c>
+      <c r="D28" s="9">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E28" s="12">
+        <v>400</v>
+      </c>
+      <c r="F28" s="12">
+        <v>300</v>
+      </c>
+      <c r="G28" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10">
+      <c r="B29" s="8">
+        <v>100</v>
+      </c>
+      <c r="C29" s="7">
+        <v>50</v>
+      </c>
+      <c r="D29" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="12">
+        <v>50</v>
+      </c>
+      <c r="F29" s="12">
+        <v>50</v>
+      </c>
+      <c r="G29" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="10">
+      <c r="B30" s="8">
+        <v>100</v>
+      </c>
+      <c r="C30" s="7">
+        <v>200</v>
+      </c>
+      <c r="D30" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E30" s="12">
+        <v>80</v>
+      </c>
+      <c r="F30" s="12">
+        <v>200</v>
+      </c>
+      <c r="G30" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="10">
+      <c r="B31" s="8">
+        <v>200</v>
+      </c>
+      <c r="C31" s="7">
+        <v>150</v>
+      </c>
+      <c r="D31" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="12">
+        <v>160</v>
+      </c>
+      <c r="F31" s="12">
+        <v>150</v>
+      </c>
+      <c r="G31" s="9">
+        <f t="shared" si="1"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="10">
+      <c r="B32" s="8">
+        <v>200</v>
+      </c>
+      <c r="C32" s="7">
+        <v>50</v>
+      </c>
+      <c r="D32" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E32" s="12">
+        <v>100</v>
+      </c>
+      <c r="F32" s="12">
+        <v>50</v>
+      </c>
+      <c r="G32" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="10">
+      <c r="B33" s="8">
+        <v>1000</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1000</v>
+      </c>
+      <c r="D33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G33" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="10">
+      <c r="B34" s="8">
+        <v>100</v>
+      </c>
+      <c r="C34" s="7">
+        <v>50</v>
+      </c>
+      <c r="D34" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E34" s="12">
+        <v>60</v>
+      </c>
+      <c r="F34" s="12">
+        <v>50</v>
+      </c>
+      <c r="G34" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="8">
+        <v>200</v>
+      </c>
+      <c r="C35" s="7">
+        <v>50</v>
+      </c>
+      <c r="D35" s="9">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E35" s="12">
+        <v>120</v>
+      </c>
+      <c r="F35" s="12">
+        <v>50</v>
+      </c>
+      <c r="G35" s="9">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="8">
+        <v>400</v>
+      </c>
+      <c r="C36" s="7">
+        <v>500</v>
+      </c>
+      <c r="D36" s="9">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E36" s="12">
+        <v>300</v>
+      </c>
+      <c r="F36" s="12">
+        <v>500</v>
+      </c>
+      <c r="G36" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="8">
+        <v>100</v>
+      </c>
+      <c r="C37" s="7">
+        <v>200</v>
+      </c>
+      <c r="D37" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E37" s="12">
+        <v>80</v>
+      </c>
+      <c r="F37" s="12">
+        <v>200</v>
+      </c>
+      <c r="G37" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="8">
+        <v>100</v>
+      </c>
+      <c r="C38" s="7">
+        <v>50</v>
+      </c>
+      <c r="D38" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E38" s="12">
+        <v>60</v>
+      </c>
+      <c r="F38" s="12">
+        <v>50</v>
+      </c>
+      <c r="G38" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="8">
+        <v>300</v>
+      </c>
+      <c r="C39" s="7">
+        <v>150</v>
+      </c>
+      <c r="D39" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="12">
+        <v>260</v>
+      </c>
+      <c r="F39" s="12">
+        <v>150</v>
+      </c>
+      <c r="G39" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="8">
+        <v>300</v>
+      </c>
+      <c r="C40" s="7">
+        <v>150</v>
+      </c>
+      <c r="D40" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E40" s="12">
+        <v>260</v>
+      </c>
+      <c r="F40" s="12">
+        <v>150</v>
+      </c>
+      <c r="G40" s="9">
+        <f t="shared" si="1"/>
+        <v>0.42307692307692307</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="8">
+        <v>100</v>
+      </c>
+      <c r="C41" s="7">
+        <v>50</v>
+      </c>
+      <c r="D41" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="12">
+        <v>60</v>
+      </c>
+      <c r="F41" s="12">
+        <v>50</v>
+      </c>
+      <c r="G41" s="9">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1500</v>
+      </c>
+      <c r="C42" s="7">
+        <v>1500</v>
+      </c>
+      <c r="D42" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="12">
+        <v>1500</v>
+      </c>
+      <c r="F42" s="12">
+        <v>1500</v>
+      </c>
+      <c r="G42" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="8">
+        <v>200</v>
+      </c>
+      <c r="C43" s="7">
+        <v>150</v>
+      </c>
+      <c r="D43" s="9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E43" s="12">
+        <v>180</v>
+      </c>
+      <c r="F43" s="12">
+        <v>300</v>
+      </c>
+      <c r="G43" s="9">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="8">
+        <v>100</v>
+      </c>
+      <c r="C44" s="7">
+        <v>150</v>
+      </c>
+      <c r="D44" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E44" s="12">
+        <v>80</v>
+      </c>
+      <c r="F44" s="12">
+        <v>150</v>
+      </c>
+      <c r="G44" s="9">
+        <f t="shared" si="1"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="8">
+        <v>100</v>
+      </c>
+      <c r="C45" s="7">
+        <v>50</v>
+      </c>
+      <c r="D45" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E45" s="12">
+        <v>80</v>
+      </c>
+      <c r="F45" s="12">
+        <v>50</v>
+      </c>
+      <c r="G45" s="9">
+        <f t="shared" si="1"/>
+        <v>0.375</v>
+      </c>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" s="8">
+        <v>500</v>
+      </c>
+      <c r="C46" s="7">
+        <v>150</v>
+      </c>
+      <c r="D46" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E46" s="12">
+        <v>450</v>
+      </c>
+      <c r="F46" s="12">
+        <v>150</v>
+      </c>
+      <c r="G46" s="9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="8">
+        <v>2000</v>
+      </c>
+      <c r="C47" s="7">
+        <v>400</v>
+      </c>
+      <c r="D47" s="9">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="12">
+        <v>2000</v>
+      </c>
+      <c r="F47" s="12">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="8">
+        <v>100</v>
+      </c>
+      <c r="C48" s="7">
+        <v>50</v>
+      </c>
+      <c r="D48" s="9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="12">
+        <v>50</v>
+      </c>
+      <c r="F48" s="12">
+        <v>50</v>
+      </c>
+      <c r="G48" s="9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="8">
+        <v>200</v>
+      </c>
+      <c r="C49" s="7">
+        <v>200</v>
+      </c>
+      <c r="D49" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E49" s="12">
+        <v>150</v>
+      </c>
+      <c r="F49" s="12">
+        <v>200</v>
+      </c>
+      <c r="G49" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="8">
+        <v>200</v>
+      </c>
+      <c r="C50" s="7">
+        <v>200</v>
+      </c>
+      <c r="D50" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
+        <v>100</v>
+      </c>
+      <c r="F50" s="12">
+        <v>200</v>
+      </c>
+      <c r="G50" s="9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="8">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7">
+        <v>30</v>
+      </c>
+      <c r="D51" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E51" s="12">
         <v>40</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="10">
+      <c r="F51" s="12">
+        <v>30</v>
+      </c>
+      <c r="G51" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="10">
+      <c r="B52" s="8">
+        <v>100</v>
+      </c>
+      <c r="C52" s="7">
+        <v>30</v>
+      </c>
+      <c r="D52" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E52" s="12">
+        <v>40</v>
+      </c>
+      <c r="F52" s="12">
+        <v>30</v>
+      </c>
+      <c r="G52" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="10">
+      <c r="B53" s="8">
+        <v>100</v>
+      </c>
+      <c r="C53" s="7">
+        <v>30</v>
+      </c>
+      <c r="D53" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E53" s="12">
+        <v>40</v>
+      </c>
+      <c r="F53" s="12">
+        <v>30</v>
+      </c>
+      <c r="G53" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="10">
+      <c r="B54" s="8">
+        <v>100</v>
+      </c>
+      <c r="C54" s="7">
+        <v>30</v>
+      </c>
+      <c r="D54" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E54" s="12">
+        <v>40</v>
+      </c>
+      <c r="F54" s="12">
+        <v>30</v>
+      </c>
+      <c r="G54" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="10">
+      <c r="B55" s="8">
+        <v>100</v>
+      </c>
+      <c r="C55" s="7">
+        <v>30</v>
+      </c>
+      <c r="D55" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E55" s="12">
+        <v>40</v>
+      </c>
+      <c r="F55" s="12">
+        <v>30</v>
+      </c>
+      <c r="G55" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="10">
+      <c r="B56" s="8">
+        <v>100</v>
+      </c>
+      <c r="C56" s="7">
+        <v>30</v>
+      </c>
+      <c r="D56" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E56" s="12">
+        <v>40</v>
+      </c>
+      <c r="F56" s="12">
+        <v>30</v>
+      </c>
+      <c r="G56" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="10">
+      <c r="B57" s="8">
+        <v>100</v>
+      </c>
+      <c r="C57" s="7">
+        <v>30</v>
+      </c>
+      <c r="D57" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E57" s="12">
+        <v>40</v>
+      </c>
+      <c r="F57" s="12">
+        <v>30</v>
+      </c>
+      <c r="G57" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="10">
+      <c r="B58" s="8">
+        <v>100</v>
+      </c>
+      <c r="C58" s="7">
+        <v>30</v>
+      </c>
+      <c r="D58" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E58" s="12">
+        <v>40</v>
+      </c>
+      <c r="F58" s="12">
+        <v>30</v>
+      </c>
+      <c r="G58" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="10">
+      <c r="B59" s="8">
+        <v>100</v>
+      </c>
+      <c r="C59" s="7">
+        <v>30</v>
+      </c>
+      <c r="D59" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E59" s="12">
+        <v>40</v>
+      </c>
+      <c r="F59" s="12">
+        <v>30</v>
+      </c>
+      <c r="G59" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="10">
+      <c r="B60" s="8">
+        <v>100</v>
+      </c>
+      <c r="C60" s="7">
+        <v>30</v>
+      </c>
+      <c r="D60" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E60" s="12">
+        <v>40</v>
+      </c>
+      <c r="F60" s="12">
+        <v>30</v>
+      </c>
+      <c r="G60" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="10">
+      <c r="B61" s="8">
+        <v>100</v>
+      </c>
+      <c r="C61" s="7">
+        <v>30</v>
+      </c>
+      <c r="D61" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E61" s="12">
+        <v>40</v>
+      </c>
+      <c r="F61" s="12">
+        <v>30</v>
+      </c>
+      <c r="G61" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="10">
+      <c r="B62" s="8">
+        <v>100</v>
+      </c>
+      <c r="C62" s="7">
+        <v>30</v>
+      </c>
+      <c r="D62" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E62" s="12">
+        <v>40</v>
+      </c>
+      <c r="F62" s="12">
+        <v>30</v>
+      </c>
+      <c r="G62" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="10">
+      <c r="B63" s="8">
+        <v>100</v>
+      </c>
+      <c r="C63" s="7">
+        <v>30</v>
+      </c>
+      <c r="D63" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E63" s="12">
+        <v>40</v>
+      </c>
+      <c r="F63" s="12">
+        <v>30</v>
+      </c>
+      <c r="G63" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="10">
+      <c r="B64" s="8">
+        <v>100</v>
+      </c>
+      <c r="C64" s="7">
+        <v>30</v>
+      </c>
+      <c r="D64" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E64" s="12">
+        <v>40</v>
+      </c>
+      <c r="F64" s="12">
+        <v>30</v>
+      </c>
+      <c r="G64" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:10">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="10">
+      <c r="B65" s="8">
+        <v>100</v>
+      </c>
+      <c r="C65" s="7">
+        <v>30</v>
+      </c>
+      <c r="D65" s="9">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E65" s="12">
+        <v>40</v>
+      </c>
+      <c r="F65" s="12">
+        <v>30</v>
+      </c>
+      <c r="G65" s="9">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="10">
+      <c r="B66" s="8">
+        <v>300</v>
+      </c>
+      <c r="C66" s="7">
+        <v>100</v>
+      </c>
+      <c r="D66" s="9">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E66" s="12">
+        <v>40</v>
+      </c>
+      <c r="F66" s="12">
+        <v>100</v>
+      </c>
+      <c r="G66" s="9">
+        <f t="shared" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:10">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="10">
+      <c r="B67" s="8">
+        <v>300</v>
+      </c>
+      <c r="C67" s="7">
+        <v>200</v>
+      </c>
+      <c r="D67" s="9">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E67" s="12">
+        <v>40</v>
+      </c>
+      <c r="F67" s="12">
+        <v>0</v>
+      </c>
+      <c r="G67" s="9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10">
+      <c r="B68" s="8">
+        <v>100</v>
+      </c>
+      <c r="C68" s="7">
+        <v>50</v>
+      </c>
+      <c r="D68" s="9">
         <f t="shared" ref="D68:D72" si="3">IF(B68+C68&gt;0,ABS(B68-C68)/MAX(B68,C68),0)</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E68" s="12">
+        <v>40</v>
+      </c>
+      <c r="F68" s="12">
+        <v>50</v>
+      </c>
+      <c r="G68" s="9">
         <f t="shared" ref="G68:G72" si="4">IF(E68+F68&gt;0,ABS(E68-F68)/MAX(E68,F68),0)</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="9">
         <f t="shared" ref="J68:J72" si="5">IF(H68+I68&gt;0,ABS(H68-I68)/MAX(H68,I68),0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10">
+      <c r="B69" s="8">
+        <v>100</v>
+      </c>
+      <c r="C69" s="7">
+        <v>50</v>
+      </c>
+      <c r="D69" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="12">
+        <v>60</v>
+      </c>
+      <c r="F69" s="12">
+        <v>50</v>
+      </c>
+      <c r="G69" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:10">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="10">
+      <c r="B70" s="8">
+        <v>300</v>
+      </c>
+      <c r="C70" s="7">
+        <v>300</v>
+      </c>
+      <c r="D70" s="9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="10">
+      <c r="E70" s="12">
+        <v>260</v>
+      </c>
+      <c r="F70" s="12">
+        <v>300</v>
+      </c>
+      <c r="G70" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="10">
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:10">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10">
+      <c r="B71" s="8">
+        <v>100</v>
+      </c>
+      <c r="C71" s="7">
+        <v>50</v>
+      </c>
+      <c r="D71" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E71" s="12">
+        <v>60</v>
+      </c>
+      <c r="F71" s="12">
+        <v>50</v>
+      </c>
+      <c r="G71" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="10">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:10">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10">
+      <c r="B72" s="8">
+        <v>300</v>
+      </c>
+      <c r="C72" s="7">
+        <v>200</v>
+      </c>
+      <c r="D72" s="9">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="10">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E72" s="12">
+        <v>260</v>
+      </c>
+      <c r="F72" s="12">
+        <v>200</v>
+      </c>
+      <c r="G72" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
-      <c r="J72" s="10">
+        <v>0.23076923076923078</v>
+      </c>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="9">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -2823,7 +3174,7 @@
   <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A2:A70"/>
+      <selection activeCell="B70" sqref="B2:B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -2848,21 +3199,33 @@
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B2">
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
       <c r="C5" t="s">
         <v>79</v>
       </c>
@@ -2871,6 +3234,9 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B6">
+        <v>80</v>
+      </c>
       <c r="C6" t="s">
         <v>78</v>
       </c>
@@ -2879,6 +3245,9 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B7">
+        <v>500</v>
+      </c>
       <c r="C7" t="s">
         <v>80</v>
       </c>
@@ -2887,6 +3256,9 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
       <c r="C8" t="s">
         <v>82</v>
       </c>
@@ -2895,6 +3267,9 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
       <c r="C9" t="s">
         <v>81</v>
       </c>
@@ -2903,6 +3278,9 @@
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
       <c r="C10" t="s">
         <v>84</v>
       </c>
@@ -2911,6 +3289,9 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
       <c r="C11" t="s">
         <v>83</v>
       </c>
@@ -2919,6 +3300,9 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B12">
+        <v>80</v>
+      </c>
       <c r="C12" t="s">
         <v>85</v>
       </c>
@@ -2927,26 +3311,41 @@
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B13">
+        <v>50</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B14">
+        <v>50</v>
+      </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="B16">
+        <v>50</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B17">
+        <v>300</v>
+      </c>
       <c r="C17" t="s">
         <v>86</v>
       </c>
@@ -2955,6 +3354,9 @@
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B18">
+        <v>500</v>
+      </c>
       <c r="C18" t="s">
         <v>87</v>
       </c>
@@ -2963,22 +3365,31 @@
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B19">
+        <v>700</v>
+      </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="B20">
+        <v>300</v>
+      </c>
       <c r="C20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="B21">
+        <v>200</v>
+      </c>
       <c r="C21" t="s">
         <v>87</v>
       </c>
@@ -2986,6 +3397,9 @@
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="B22">
+        <v>700</v>
       </c>
       <c r="C22" t="s">
         <v>88</v>
@@ -2995,6 +3409,9 @@
       <c r="A23" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B23">
+        <v>150</v>
+      </c>
       <c r="C23" t="s">
         <v>91</v>
       </c>
@@ -3003,6 +3420,9 @@
       <c r="A24" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
       <c r="C24" t="s">
         <v>89</v>
       </c>
@@ -3011,6 +3431,9 @@
       <c r="A25" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="B25">
+        <v>150</v>
+      </c>
       <c r="C25" t="s">
         <v>90</v>
       </c>
@@ -3019,258 +3442,396 @@
       <c r="A26" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B26">
+        <v>300</v>
+      </c>
       <c r="C26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B27">
+        <v>50</v>
+      </c>
       <c r="C27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B28">
+        <v>200</v>
+      </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B29">
+        <v>150</v>
+      </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B30">
+        <v>50</v>
+      </c>
       <c r="C30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
         <v>76</v>
       </c>
+      <c r="B31">
+        <v>1000</v>
+      </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B32">
+        <v>50</v>
+      </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
         <v>41</v>
       </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="B35">
+        <v>200</v>
+      </c>
       <c r="C35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1" t="s">
         <v>43</v>
       </c>
+      <c r="B36">
+        <v>50</v>
+      </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
         <v>44</v>
       </c>
+      <c r="B37">
+        <v>150</v>
+      </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1" t="s">
         <v>45</v>
       </c>
+      <c r="B38">
+        <v>150</v>
+      </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="B39">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
+      </c>
+      <c r="B40">
+        <v>1500</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
+      <c r="B41">
+        <v>300</v>
+      </c>
+      <c r="C41" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="B42">
+        <v>150</v>
+      </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="B43">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="B44">
+        <v>150</v>
+      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B45">
+        <v>1000</v>
+      </c>
+      <c r="C45" t="s">
         <v>102</v>
-      </c>
-      <c r="C45" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="B46">
+        <v>50</v>
+      </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="B47">
+        <v>200</v>
+      </c>
       <c r="C47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
+      <c r="B48">
+        <v>200</v>
+      </c>
       <c r="C48" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="B49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
+      <c r="B50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
+      <c r="B51">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
+      <c r="B52">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
+      <c r="B53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
+      <c r="B54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
+      <c r="B55">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
+      <c r="B56">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
+      <c r="B57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
+      <c r="B58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
+      <c r="B59">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
+      <c r="B60">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
+      <c r="B61">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
+      <c r="B62">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
+      <c r="B63">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>69</v>
+      </c>
+      <c r="B64">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="B66">
+        <v>50</v>
+      </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="1" t="s">
         <v>72</v>
       </c>
+      <c r="B67">
+        <v>50</v>
+      </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
         <v>73</v>
       </c>
+      <c r="B68">
+        <v>300</v>
+      </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="B69">
+        <v>50</v>
+      </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="1" t="s">
         <v>75</v>
       </c>
+      <c r="B70">
+        <v>200</v>
+      </c>
       <c r="C70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/代码估计.xlsx
+++ b/Documents/代码估计.xlsx
@@ -10,7 +10,7 @@
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="详细" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -586,17 +586,24 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF0066FF"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -608,6 +615,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0066FF"/>
+      <color rgb="FFFFFFFF"/>
       <color rgb="FFFFFF99"/>
     </mruColors>
   </colors>
@@ -901,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -919,27 +928,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="11"/>
+      <c r="A2" s="12"/>
       <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1023,10 +1032,10 @@
         <f t="shared" ref="D4:D67" si="0">IF(B4+C4&gt;0,ABS(B4-C4)/MAX(B4,C4),0)</f>
         <v>0.5</v>
       </c>
-      <c r="E4" s="12">
-        <v>50</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="E4" s="11">
+        <v>50</v>
+      </c>
+      <c r="F4" s="11">
         <v>50</v>
       </c>
       <c r="G4" s="9">
@@ -1054,10 +1063,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>40</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="11">
         <v>30</v>
       </c>
       <c r="G5" s="9">
@@ -1085,10 +1094,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>40</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>30</v>
       </c>
       <c r="G6" s="9">
@@ -1116,10 +1125,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>80</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>200</v>
       </c>
       <c r="G7" s="9">
@@ -1147,10 +1156,10 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>40</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>80</v>
       </c>
       <c r="G8" s="9">
@@ -1178,10 +1187,10 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>250</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="11">
         <v>500</v>
       </c>
       <c r="G9" s="9">
@@ -1209,10 +1218,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>70</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>100</v>
       </c>
       <c r="G10" s="9">
@@ -1240,10 +1249,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>40</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="11">
         <v>100</v>
       </c>
       <c r="G11" s="9">
@@ -1271,10 +1280,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>70</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="11">
         <v>100</v>
       </c>
       <c r="G12" s="9">
@@ -1302,10 +1311,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>40</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>100</v>
       </c>
       <c r="G13" s="9">
@@ -1333,10 +1342,10 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>40</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>80</v>
       </c>
       <c r="G14" s="9">
@@ -1364,10 +1373,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>150</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="11">
         <v>50</v>
       </c>
       <c r="G15" s="9">
@@ -1395,10 +1404,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>80</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="11">
         <v>50</v>
       </c>
       <c r="G16" s="9">
@@ -1426,10 +1435,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>150</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="11">
         <v>50</v>
       </c>
       <c r="G17" s="9">
@@ -1457,10 +1466,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>60</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>50</v>
       </c>
       <c r="G18" s="9">
@@ -1488,10 +1497,10 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>450</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="11">
         <v>300</v>
       </c>
       <c r="G19" s="9">
@@ -1519,10 +1528,10 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>300</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="11">
         <v>500</v>
       </c>
       <c r="G20" s="9">
@@ -1550,10 +1559,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>600</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="11">
         <v>700</v>
       </c>
       <c r="G21" s="9">
@@ -1581,10 +1590,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>250</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="11">
         <v>300</v>
       </c>
       <c r="G22" s="9">
@@ -1612,10 +1621,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>180</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="11">
         <v>200</v>
       </c>
       <c r="G23" s="9">
@@ -1643,10 +1652,10 @@
         <f t="shared" si="0"/>
         <v>0.8571428571428571</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>400</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="11">
         <v>700</v>
       </c>
       <c r="G24" s="9">
@@ -1674,10 +1683,10 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>160</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="11">
         <v>150</v>
       </c>
       <c r="G25" s="9">
@@ -1705,10 +1714,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>80</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="11">
         <v>200</v>
       </c>
       <c r="G26" s="9">
@@ -1736,10 +1745,10 @@
         <f t="shared" si="0"/>
         <v>0.625</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="11">
         <v>300</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27" s="11">
         <v>150</v>
       </c>
       <c r="G27" s="9">
@@ -1767,10 +1776,10 @@
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="11">
         <v>400</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="11">
         <v>300</v>
       </c>
       <c r="G28" s="9">
@@ -1798,10 +1807,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E29" s="12">
-        <v>50</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="E29" s="11">
+        <v>50</v>
+      </c>
+      <c r="F29" s="11">
         <v>50</v>
       </c>
       <c r="G29" s="9">
@@ -1829,10 +1838,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>80</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>200</v>
       </c>
       <c r="G30" s="9">
@@ -1860,10 +1869,10 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="11">
         <v>160</v>
       </c>
-      <c r="F31" s="12">
+      <c r="F31" s="11">
         <v>150</v>
       </c>
       <c r="G31" s="9">
@@ -1891,10 +1900,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E32" s="12">
-        <v>100</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="E32" s="11">
+        <v>100</v>
+      </c>
+      <c r="F32" s="11">
         <v>50</v>
       </c>
       <c r="G32" s="9">
@@ -1922,10 +1931,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="11">
         <v>1000</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="11">
         <v>1000</v>
       </c>
       <c r="G33" s="9">
@@ -1953,10 +1962,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="11">
         <v>60</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="11">
         <v>50</v>
       </c>
       <c r="G34" s="9">
@@ -1984,10 +1993,10 @@
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="11">
         <v>120</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="11">
         <v>50</v>
       </c>
       <c r="G35" s="9">
@@ -2015,10 +2024,10 @@
         <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="11">
         <v>300</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="11">
         <v>500</v>
       </c>
       <c r="G36" s="9">
@@ -2046,10 +2055,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>80</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>200</v>
       </c>
       <c r="G37" s="9">
@@ -2077,10 +2086,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>60</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>50</v>
       </c>
       <c r="G38" s="9">
@@ -2108,10 +2117,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>260</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>150</v>
       </c>
       <c r="G39" s="9">
@@ -2139,10 +2148,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>260</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>150</v>
       </c>
       <c r="G40" s="9">
@@ -2170,10 +2179,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="11">
         <v>60</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="11">
         <v>50</v>
       </c>
       <c r="G41" s="9">
@@ -2201,10 +2210,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="11">
         <v>1500</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42" s="11">
         <v>1500</v>
       </c>
       <c r="G42" s="9">
@@ -2232,10 +2241,10 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="11">
         <v>180</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="11">
         <v>300</v>
       </c>
       <c r="G43" s="9">
@@ -2263,10 +2272,10 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="11">
         <v>80</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44" s="11">
         <v>150</v>
       </c>
       <c r="G44" s="9">
@@ -2294,10 +2303,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="11">
         <v>80</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="11">
         <v>50</v>
       </c>
       <c r="G45" s="9">
@@ -2325,10 +2334,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="11">
         <v>450</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="11">
         <v>150</v>
       </c>
       <c r="G46" s="9">
@@ -2356,10 +2365,10 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>2000</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="11">
         <v>1000</v>
       </c>
       <c r="G47" s="9">
@@ -2387,10 +2396,10 @@
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
-      <c r="E48" s="12">
-        <v>50</v>
-      </c>
-      <c r="F48" s="12">
+      <c r="E48" s="11">
+        <v>50</v>
+      </c>
+      <c r="F48" s="11">
         <v>50</v>
       </c>
       <c r="G48" s="9">
@@ -2418,10 +2427,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>150</v>
       </c>
-      <c r="F49" s="12">
+      <c r="F49" s="11">
         <v>200</v>
       </c>
       <c r="G49" s="9">
@@ -2449,10 +2458,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E50" s="12">
-        <v>100</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50" s="11">
+        <v>100</v>
+      </c>
+      <c r="F50" s="11">
         <v>200</v>
       </c>
       <c r="G50" s="9">
@@ -2480,10 +2489,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>40</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="11">
         <v>30</v>
       </c>
       <c r="G51" s="9">
@@ -2511,10 +2520,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="11">
         <v>40</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="11">
         <v>30</v>
       </c>
       <c r="G52" s="9">
@@ -2542,10 +2551,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="11">
         <v>40</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="11">
         <v>30</v>
       </c>
       <c r="G53" s="9">
@@ -2573,10 +2582,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="11">
         <v>40</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54" s="11">
         <v>30</v>
       </c>
       <c r="G54" s="9">
@@ -2604,10 +2613,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="11">
         <v>40</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="11">
         <v>30</v>
       </c>
       <c r="G55" s="9">
@@ -2635,10 +2644,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="11">
         <v>40</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="11">
         <v>30</v>
       </c>
       <c r="G56" s="9">
@@ -2666,10 +2675,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="11">
         <v>40</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="11">
         <v>30</v>
       </c>
       <c r="G57" s="9">
@@ -2697,10 +2706,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="11">
         <v>40</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58" s="11">
         <v>30</v>
       </c>
       <c r="G58" s="9">
@@ -2728,10 +2737,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="11">
         <v>40</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="11">
         <v>30</v>
       </c>
       <c r="G59" s="9">
@@ -2759,10 +2768,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="11">
         <v>40</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60" s="11">
         <v>30</v>
       </c>
       <c r="G60" s="9">
@@ -2790,10 +2799,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="11">
         <v>40</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61" s="11">
         <v>30</v>
       </c>
       <c r="G61" s="9">
@@ -2821,10 +2830,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="11">
         <v>40</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="11">
         <v>30</v>
       </c>
       <c r="G62" s="9">
@@ -2852,10 +2861,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="11">
         <v>40</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="11">
         <v>30</v>
       </c>
       <c r="G63" s="9">
@@ -2883,10 +2892,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="11">
         <v>40</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="11">
         <v>30</v>
       </c>
       <c r="G64" s="9">
@@ -2914,10 +2923,10 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="11">
         <v>40</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="11">
         <v>30</v>
       </c>
       <c r="G65" s="9">
@@ -2945,10 +2954,10 @@
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="11">
         <v>40</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="11">
         <v>100</v>
       </c>
       <c r="G66" s="9">
@@ -2976,10 +2985,10 @@
         <f t="shared" si="0"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="11">
         <v>40</v>
       </c>
-      <c r="F67" s="12">
+      <c r="F67" s="11">
         <v>0</v>
       </c>
       <c r="G67" s="9">
@@ -3007,10 +3016,10 @@
         <f t="shared" ref="D68:D72" si="3">IF(B68+C68&gt;0,ABS(B68-C68)/MAX(B68,C68),0)</f>
         <v>0.5</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="11">
         <v>40</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="11">
         <v>50</v>
       </c>
       <c r="G68" s="9">
@@ -3038,10 +3047,10 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="11">
         <v>60</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="11">
         <v>50</v>
       </c>
       <c r="G69" s="9">
@@ -3069,10 +3078,10 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="11">
         <v>260</v>
       </c>
-      <c r="F70" s="12">
+      <c r="F70" s="11">
         <v>300</v>
       </c>
       <c r="G70" s="9">
@@ -3100,10 +3109,10 @@
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="11">
         <v>60</v>
       </c>
-      <c r="F71" s="12">
+      <c r="F71" s="11">
         <v>50</v>
       </c>
       <c r="G71" s="9">
@@ -3131,10 +3140,10 @@
         <f t="shared" si="3"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E72" s="12">
+      <c r="E72" s="11">
         <v>260</v>
       </c>
-      <c r="F72" s="12">
+      <c r="F72" s="11">
         <v>200</v>
       </c>
       <c r="G72" s="9">
@@ -3157,8 +3166,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D4:D72 G4:G72 J4:J72">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:F72 B4:C72">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
-      <formula>0.15</formula>
+      <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
